--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/20/seed3/result_data_RandomForest.xlsx
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.8108</v>
+        <v>-12.71440000000001</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.0882</v>
+        <v>-21.1868</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.51059999999997</v>
+        <v>-20.48349999999998</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.40520000000004</v>
+        <v>-22.28220000000004</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>6.3558</v>
+        <v>6.281899999999997</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.30430000000003</v>
+        <v>-22.33910000000003</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.4296</v>
+        <v>-13.40359999999999</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.27400000000003</v>
+        <v>-22.24940000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
